--- a/BalanceSheet/NXPI_bal.xlsx
+++ b/BalanceSheet/NXPI_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-26000000.0</v>
+        <v>1056000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>36048500.0</v>
+        <v>1030000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>169399600.0</v>
+        <v>1064000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>18000.0</v>
+        <v>1228000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-35000000.0</v>
+        <v>1227000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1192000000.0</v>
@@ -1693,19 +1693,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>51000000.0</v>
+        <v>1033000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>348199600.0</v>
+        <v>991000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>81362600.0</v>
+        <v>697000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-159950600.0</v>
+        <v>729000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>64000000.0</v>
+        <v>895000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>944000000.0</v>
@@ -2656,19 +2656,19 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>12000000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-79478600.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-129587600.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-80919700.0</v>
+        <v>136000000.0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>-75000000.0</v>
+        <v>199000000.0</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>282000000.0</v>
@@ -4553,7 +4553,7 @@
         <v>6506000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>6583000000.0</v>
+        <v>6384000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>4968000000.0</v>
@@ -4680,7 +4680,7 @@
         <v>7585000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>7628000000.0</v>
+        <v>7429000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>8505000000.0</v>
